--- a/Guestlist1.xlsx
+++ b/Guestlist1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\workspace\Web\99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE46D1B-B7F6-4E9A-9E18-FDAD3145383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71ECD7A-68DF-453E-A526-FFC20E009E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="1650" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>Vorname 1</t>
   </si>
@@ -173,9 +173,6 @@
     <t>Lukas</t>
   </si>
   <si>
-    <t>Miriam oder Mirjam?</t>
-  </si>
-  <si>
     <t>Slavko</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Lea</t>
   </si>
   <si>
-    <t>Bigler ???</t>
-  </si>
-  <si>
     <t>Simon</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>Meli</t>
   </si>
   <si>
-    <t>Pimeli ???</t>
-  </si>
-  <si>
     <t>Tobias</t>
   </si>
   <si>
@@ -228,6 +219,78 @@
   </si>
   <si>
     <t>Attend09</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Würgler</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Bigler</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Yves</t>
+  </si>
+  <si>
+    <t>Kaufmann</t>
+  </si>
+  <si>
+    <t>Selina</t>
+  </si>
+  <si>
+    <t>Cirill</t>
+  </si>
+  <si>
+    <t>Richner</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Marlis</t>
+  </si>
+  <si>
+    <t>Reto</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Beutler</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Ilona</t>
+  </si>
+  <si>
+    <t>Hugo sr.</t>
+  </si>
+  <si>
+    <t>Preksha</t>
+  </si>
+  <si>
+    <t>Wunderlin</t>
   </si>
 </sst>
 </file>
@@ -243,16 +306,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,8 +343,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -580,45 +642,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>45906</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="3">
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2">
         <v>45909</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -632,7 +694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -646,7 +708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -660,7 +722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -674,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -688,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -702,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -713,10 +775,10 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -727,10 +789,10 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -741,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -755,38 +817,103 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -800,7 +927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -814,7 +941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -828,7 +955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -842,7 +969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -856,41 +983,44 @@
         <v>23</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -904,10 +1034,49 @@
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -918,130 +1087,133 @@
         <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B44" t="s">
         <v>57</v>
-      </c>
-      <c r="B37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>60</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1050,17 +1222,99 @@
         <v>23</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <f>COUNTIF(A2:A50, "&lt;&gt;")</f>
+        <v>41</v>
+      </c>
       <c r="B53">
         <f>(COUNTIF(A2:A51,_xleta.VALUE))</f>
         <v>0</v>
       </c>
+      <c r="C53">
+        <f>COUNTIF(C2:C50, "&lt;&gt;")</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B56" s="1">
+        <f>A53+C53</f>
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D30 F2:F30 D35:D46 F35:F46">
+  <conditionalFormatting sqref="D2:D33 F2:F33 D35:D48 F35:F48">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"false"</formula>
     </cfRule>
